--- a/results/final_processed_results.xlsx
+++ b/results/final_processed_results.xlsx
@@ -842,31 +842,31 @@
         <v>100</v>
       </c>
       <c r="B13" t="n">
-        <v>389.9403818661111</v>
+        <v>389.0856563739457</v>
       </c>
       <c r="C13" t="n">
-        <v>945.2132024357604</v>
+        <v>944.3884024437281</v>
       </c>
       <c r="D13" t="n">
-        <v>115</v>
+        <v>114.9999613576646</v>
       </c>
       <c r="E13" t="n">
-        <v>3.933350592</v>
+        <v>3.924806266</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08073950100000001</v>
+        <v>0.080798315</v>
       </c>
       <c r="G13" t="n">
-        <v>10.869951828</v>
+        <v>10.860462979</v>
       </c>
       <c r="H13" t="n">
-        <v>35.87323918596006</v>
+        <v>35.82588119260562</v>
       </c>
       <c r="I13" t="n">
-        <v>99.49999999919427</v>
+        <v>99.49999999919889</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8457723989610926</v>
+        <v>0.8477640262402734</v>
       </c>
     </row>
     <row r="14">
@@ -874,31 +874,31 @@
         <v>100</v>
       </c>
       <c r="B14" t="n">
-        <v>392.7549584318353</v>
+        <v>389.9403818661111</v>
       </c>
       <c r="C14" t="n">
-        <v>947.7573602595907</v>
+        <v>945.2132024357604</v>
       </c>
       <c r="D14" t="n">
         <v>115</v>
       </c>
       <c r="E14" t="n">
-        <v>3.961487384</v>
+        <v>3.933350592</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08056125</v>
+        <v>0.08073950100000001</v>
       </c>
       <c r="G14" t="n">
-        <v>10.899209643</v>
+        <v>10.869951828</v>
       </c>
       <c r="H14" t="n">
-        <v>36.0351778979324</v>
+        <v>35.87323918596006</v>
       </c>
       <c r="I14" t="n">
-        <v>99.49999994847741</v>
+        <v>99.49999999919427</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8307682097970008</v>
+        <v>0.8457723989610926</v>
       </c>
     </row>
     <row r="15">
@@ -906,31 +906,31 @@
         <v>100</v>
       </c>
       <c r="B15" t="n">
-        <v>389.0856563739455</v>
+        <v>392.7549584318353</v>
       </c>
       <c r="C15" t="n">
-        <v>944.3884024437281</v>
+        <v>947.7573602595907</v>
       </c>
       <c r="D15" t="n">
-        <v>114.9999613576649</v>
+        <v>115</v>
       </c>
       <c r="E15" t="n">
-        <v>3.924806266</v>
+        <v>3.961487384</v>
       </c>
       <c r="F15" t="n">
-        <v>0.080798315</v>
+        <v>0.08056125</v>
       </c>
       <c r="G15" t="n">
-        <v>10.860462979</v>
+        <v>10.899209643</v>
       </c>
       <c r="H15" t="n">
-        <v>35.82588119260551</v>
+        <v>36.0351778979324</v>
       </c>
       <c r="I15" t="n">
-        <v>99.49999999919888</v>
+        <v>99.49999994847741</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8477640262402734</v>
+        <v>0.8307682097970008</v>
       </c>
     </row>
     <row r="16">
@@ -1386,13 +1386,13 @@
         <v>100</v>
       </c>
       <c r="B30" t="n">
-        <v>422.5435145780292</v>
+        <v>422.543514578065</v>
       </c>
       <c r="C30" t="n">
         <v>1150</v>
       </c>
       <c r="D30" t="n">
-        <v>96.27083953937722</v>
+        <v>96.270839539378</v>
       </c>
       <c r="E30" t="n">
         <v>4.259790074</v>
@@ -1404,7 +1404,7 @@
         <v>11.071146547</v>
       </c>
       <c r="H30" t="n">
-        <v>38.16619288554578</v>
+        <v>38.1661928855487</v>
       </c>
       <c r="I30" t="n">
         <v>99.49999989612785</v>
@@ -1642,31 +1642,31 @@
         <v>120</v>
       </c>
       <c r="B38" t="n">
-        <v>386.6513509361477</v>
+        <v>386.475681509468</v>
       </c>
       <c r="C38" t="n">
-        <v>722.7255467667624</v>
+        <v>722.4832056079632</v>
       </c>
       <c r="D38" t="n">
         <v>115</v>
       </c>
       <c r="E38" t="n">
-        <v>3.911140177</v>
+        <v>3.909384723</v>
       </c>
       <c r="F38" t="n">
-        <v>0.087946235</v>
+        <v>0.08797310799999999</v>
       </c>
       <c r="G38" t="n">
-        <v>9.973612545</v>
+        <v>9.970268237000001</v>
       </c>
       <c r="H38" t="n">
-        <v>38.76743248014002</v>
+        <v>38.7628168377788</v>
       </c>
       <c r="I38" t="n">
-        <v>99.49999994684659</v>
+        <v>99.49999985879633</v>
       </c>
       <c r="J38" t="n">
-        <v>0.4510068703356723</v>
+        <v>0.4514019372896535</v>
       </c>
     </row>
     <row r="39">
@@ -1706,31 +1706,31 @@
         <v>120</v>
       </c>
       <c r="B40" t="n">
-        <v>386.475681509468</v>
+        <v>392.3770811038666</v>
       </c>
       <c r="C40" t="n">
-        <v>722.4832056079632</v>
+        <v>729.7530272820015</v>
       </c>
       <c r="D40" t="n">
         <v>115</v>
       </c>
       <c r="E40" t="n">
-        <v>3.909384723</v>
+        <v>3.96836212</v>
       </c>
       <c r="F40" t="n">
-        <v>0.08797310799999999</v>
+        <v>0.08718406300000001</v>
       </c>
       <c r="G40" t="n">
-        <v>9.970268237000001</v>
+        <v>10.070591776</v>
       </c>
       <c r="H40" t="n">
-        <v>38.7628168377788</v>
+        <v>38.96266374532385</v>
       </c>
       <c r="I40" t="n">
-        <v>99.49999985879633</v>
+        <v>99.49999992246582</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4514019372896535</v>
+        <v>0.4329745929947295</v>
       </c>
     </row>
     <row r="41">
@@ -1738,31 +1738,31 @@
         <v>120</v>
       </c>
       <c r="B41" t="n">
-        <v>390.3121129264819</v>
+        <v>386.6513509361477</v>
       </c>
       <c r="C41" t="n">
-        <v>727.4105337769219</v>
+        <v>722.7255467667624</v>
       </c>
       <c r="D41" t="n">
         <v>115</v>
       </c>
       <c r="E41" t="n">
-        <v>3.947724095</v>
+        <v>3.911140177</v>
       </c>
       <c r="F41" t="n">
-        <v>0.087434163</v>
+        <v>0.087946235</v>
       </c>
       <c r="G41" t="n">
-        <v>10.038265366</v>
+        <v>9.973612545</v>
       </c>
       <c r="H41" t="n">
-        <v>38.88242626497595</v>
+        <v>38.76743248014002</v>
       </c>
       <c r="I41" t="n">
-        <v>99.49999999846197</v>
+        <v>99.49999994684659</v>
       </c>
       <c r="J41" t="n">
-        <v>0.4407084926085999</v>
+        <v>0.4510068703356723</v>
       </c>
     </row>
     <row r="42">
@@ -1770,31 +1770,31 @@
         <v>120</v>
       </c>
       <c r="B42" t="n">
-        <v>392.3770811038666</v>
+        <v>390.3121129264819</v>
       </c>
       <c r="C42" t="n">
-        <v>729.7530272820015</v>
+        <v>727.4105337769219</v>
       </c>
       <c r="D42" t="n">
         <v>115</v>
       </c>
       <c r="E42" t="n">
-        <v>3.96836212</v>
+        <v>3.947724095</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08718406300000001</v>
+        <v>0.087434163</v>
       </c>
       <c r="G42" t="n">
-        <v>10.070591776</v>
+        <v>10.038265366</v>
       </c>
       <c r="H42" t="n">
-        <v>38.96266374532385</v>
+        <v>38.88242626497595</v>
       </c>
       <c r="I42" t="n">
-        <v>99.49999992246582</v>
+        <v>99.49999999846197</v>
       </c>
       <c r="J42" t="n">
-        <v>0.4329745929947295</v>
+        <v>0.4407084926085999</v>
       </c>
     </row>
     <row r="43">
@@ -1802,31 +1802,31 @@
         <v>120</v>
       </c>
       <c r="B43" t="n">
-        <v>394.6584350563652</v>
+        <v>388.0594569336612</v>
       </c>
       <c r="C43" t="n">
-        <v>732.0955207870812</v>
+        <v>724.6097358305752</v>
       </c>
       <c r="D43" t="n">
         <v>115</v>
       </c>
       <c r="E43" t="n">
-        <v>3.991164129</v>
+        <v>3.925211642</v>
       </c>
       <c r="F43" t="n">
-        <v>0.08693875500000001</v>
+        <v>0.08773854</v>
       </c>
       <c r="G43" t="n">
-        <v>10.102918187</v>
+        <v>9.999614354</v>
       </c>
       <c r="H43" t="n">
-        <v>39.06380589814103</v>
+        <v>38.8074422850622</v>
       </c>
       <c r="I43" t="n">
-        <v>99.49999985242191</v>
+        <v>99.49999989936262</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4226382637507963</v>
+        <v>0.4475271123305142</v>
       </c>
     </row>
     <row r="44">
@@ -1898,31 +1898,31 @@
         <v>120</v>
       </c>
       <c r="B46" t="n">
-        <v>388.0594569336612</v>
+        <v>394.6584350563652</v>
       </c>
       <c r="C46" t="n">
-        <v>724.6097358305752</v>
+        <v>732.0955207870812</v>
       </c>
       <c r="D46" t="n">
         <v>115</v>
       </c>
       <c r="E46" t="n">
-        <v>3.925211642</v>
+        <v>3.991164129</v>
       </c>
       <c r="F46" t="n">
-        <v>0.08773854</v>
+        <v>0.08693875500000001</v>
       </c>
       <c r="G46" t="n">
-        <v>9.999614354</v>
+        <v>10.102918187</v>
       </c>
       <c r="H46" t="n">
-        <v>38.8074422850622</v>
+        <v>39.06380589814103</v>
       </c>
       <c r="I46" t="n">
-        <v>99.49999989936262</v>
+        <v>99.49999985242191</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4475271123305142</v>
+        <v>0.4226382637507963</v>
       </c>
     </row>
     <row r="47">
@@ -2026,31 +2026,31 @@
         <v>120</v>
       </c>
       <c r="B50" t="n">
-        <v>400.2800744207332</v>
+        <v>396.098118728138</v>
       </c>
       <c r="C50" t="n">
-        <v>736.7805085019211</v>
+        <v>733.4424811562474</v>
       </c>
       <c r="D50" t="n">
-        <v>115</v>
+        <v>114.9999363836711</v>
       </c>
       <c r="E50" t="n">
-        <v>4.047357838</v>
+        <v>4.005554396</v>
       </c>
       <c r="F50" t="n">
-        <v>0.08646833600000001</v>
+        <v>0.08680034</v>
       </c>
       <c r="G50" t="n">
-        <v>10.167571011</v>
+        <v>10.121500641</v>
       </c>
       <c r="H50" t="n">
-        <v>39.36830868834038</v>
+        <v>39.13432728819779</v>
       </c>
       <c r="I50" t="n">
-        <v>99.49999999783948</v>
+        <v>99.49999999986922</v>
       </c>
       <c r="J50" t="n">
-        <v>0.388613563366734</v>
+        <v>0.4150961379595439</v>
       </c>
     </row>
     <row r="51">
@@ -2058,31 +2058,31 @@
         <v>120</v>
       </c>
       <c r="B51" t="n">
-        <v>396.098118728138</v>
+        <v>400.2800744207332</v>
       </c>
       <c r="C51" t="n">
-        <v>733.4424811562474</v>
+        <v>736.7805085019211</v>
       </c>
       <c r="D51" t="n">
-        <v>114.9999363836711</v>
+        <v>115</v>
       </c>
       <c r="E51" t="n">
-        <v>4.005554396</v>
+        <v>4.047357838</v>
       </c>
       <c r="F51" t="n">
-        <v>0.08680034</v>
+        <v>0.08646833600000001</v>
       </c>
       <c r="G51" t="n">
-        <v>10.121500641</v>
+        <v>10.167571011</v>
       </c>
       <c r="H51" t="n">
-        <v>39.13432728819779</v>
+        <v>39.36830868834038</v>
       </c>
       <c r="I51" t="n">
-        <v>99.49999999986922</v>
+        <v>99.49999999783948</v>
       </c>
       <c r="J51" t="n">
-        <v>0.4150961379595439</v>
+        <v>0.388613563366734</v>
       </c>
     </row>
     <row r="52">
@@ -2122,31 +2122,31 @@
         <v>120</v>
       </c>
       <c r="B53" t="n">
-        <v>396.0983432153008</v>
+        <v>402.5576367544073</v>
       </c>
       <c r="C53" t="n">
-        <v>733.4426800770127</v>
+        <v>738.2363938364358</v>
       </c>
       <c r="D53" t="n">
-        <v>114.9999382043265</v>
+        <v>115</v>
       </c>
       <c r="E53" t="n">
-        <v>4.00555664</v>
+        <v>4.070126513</v>
       </c>
       <c r="F53" t="n">
-        <v>0.086800318</v>
+        <v>0.08633112799999999</v>
       </c>
       <c r="G53" t="n">
-        <v>10.121503546</v>
+        <v>10.187662235</v>
       </c>
       <c r="H53" t="n">
-        <v>39.13433823403971</v>
+        <v>39.51423078924515</v>
       </c>
       <c r="I53" t="n">
-        <v>99.49999999975527</v>
+        <v>99.49999997326094</v>
       </c>
       <c r="J53" t="n">
-        <v>0.4150949407785245</v>
+        <v>0.3713786934966535</v>
       </c>
     </row>
     <row r="54">
@@ -2154,31 +2154,31 @@
         <v>120</v>
       </c>
       <c r="B54" t="n">
-        <v>402.5576367544103</v>
+        <v>396.0983432153008</v>
       </c>
       <c r="C54" t="n">
-        <v>738.2363938364364</v>
+        <v>733.4426800770127</v>
       </c>
       <c r="D54" t="n">
-        <v>115</v>
+        <v>114.9999382043265</v>
       </c>
       <c r="E54" t="n">
-        <v>4.070126513</v>
+        <v>4.00555664</v>
       </c>
       <c r="F54" t="n">
-        <v>0.08633112799999999</v>
+        <v>0.086800318</v>
       </c>
       <c r="G54" t="n">
-        <v>10.187662235</v>
+        <v>10.121503546</v>
       </c>
       <c r="H54" t="n">
-        <v>39.5142307892454</v>
+        <v>39.13433823403971</v>
       </c>
       <c r="I54" t="n">
-        <v>99.49999997326094</v>
+        <v>99.49999999975527</v>
       </c>
       <c r="J54" t="n">
-        <v>0.3713786934966535</v>
+        <v>0.4150949407785245</v>
       </c>
     </row>
     <row r="55">
@@ -2186,31 +2186,31 @@
         <v>120</v>
       </c>
       <c r="B55" t="n">
-        <v>398.9093746308118</v>
+        <v>410.9611604607347</v>
       </c>
       <c r="C55" t="n">
-        <v>735.7808558527971</v>
+        <v>741.3006973684101</v>
       </c>
       <c r="D55" t="n">
         <v>115</v>
       </c>
       <c r="E55" t="n">
-        <v>4.033655639</v>
+        <v>4.15414728</v>
       </c>
       <c r="F55" t="n">
-        <v>0.086565696</v>
+        <v>0.086096673</v>
       </c>
       <c r="G55" t="n">
-        <v>10.153775811</v>
+        <v>10.229949624</v>
       </c>
       <c r="H55" t="n">
-        <v>39.28680148794972</v>
+        <v>40.17235427135343</v>
       </c>
       <c r="I55" t="n">
-        <v>99.49999982278095</v>
+        <v>99.49999947288799</v>
       </c>
       <c r="J55" t="n">
-        <v>0.3980443653607408</v>
+        <v>0.2934038071865057</v>
       </c>
     </row>
     <row r="56">
@@ -2218,31 +2218,31 @@
         <v>120</v>
       </c>
       <c r="B56" t="n">
-        <v>410.9611604607229</v>
+        <v>398.9093746308118</v>
       </c>
       <c r="C56" t="n">
-        <v>741.3006973684087</v>
+        <v>735.7808558527971</v>
       </c>
       <c r="D56" t="n">
         <v>115</v>
       </c>
       <c r="E56" t="n">
-        <v>4.15414728</v>
+        <v>4.033655639</v>
       </c>
       <c r="F56" t="n">
-        <v>0.086096673</v>
+        <v>0.086565696</v>
       </c>
       <c r="G56" t="n">
-        <v>10.229949624</v>
+        <v>10.153775811</v>
       </c>
       <c r="H56" t="n">
-        <v>40.17235427135235</v>
+        <v>39.28680148794972</v>
       </c>
       <c r="I56" t="n">
-        <v>99.49999947288799</v>
+        <v>99.49999982278095</v>
       </c>
       <c r="J56" t="n">
-        <v>0.2934038071865057</v>
+        <v>0.3980443653607408</v>
       </c>
     </row>
     <row r="57">
